--- a/Code/Results/Cases/Case_7_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55206926687899</v>
+        <v>13.35341854327153</v>
       </c>
       <c r="C2">
-        <v>11.44867293024164</v>
+        <v>7.502065876147753</v>
       </c>
       <c r="D2">
-        <v>4.653999134926348</v>
+        <v>5.29492896186673</v>
       </c>
       <c r="E2">
-        <v>6.577028359610834</v>
+        <v>7.861797116312233</v>
       </c>
       <c r="F2">
-        <v>30.95423748326718</v>
+        <v>20.96006961769497</v>
       </c>
       <c r="G2">
-        <v>2.099363926110897</v>
+        <v>2.107544605239478</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.60410385880806</v>
+        <v>10.81138873607038</v>
       </c>
       <c r="L2">
-        <v>6.171255954436237</v>
+        <v>6.183366007855216</v>
       </c>
       <c r="M2">
-        <v>12.5694139544006</v>
+        <v>9.861612721246276</v>
       </c>
       <c r="N2">
-        <v>13.81818858527391</v>
+        <v>13.44525002080203</v>
       </c>
       <c r="O2">
-        <v>24.45327017020361</v>
+        <v>17.34172002906405</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.27530079744581</v>
+        <v>12.54365782747848</v>
       </c>
       <c r="C3">
-        <v>10.7820763992474</v>
+        <v>7.469983130192964</v>
       </c>
       <c r="D3">
-        <v>4.731085200067835</v>
+        <v>5.169689100768188</v>
       </c>
       <c r="E3">
-        <v>6.616444444478534</v>
+        <v>7.865815218791139</v>
       </c>
       <c r="F3">
-        <v>29.90487462518758</v>
+        <v>20.66179385613064</v>
       </c>
       <c r="G3">
-        <v>2.108135660579061</v>
+        <v>2.112148381617373</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.4427364669047</v>
+        <v>10.17862157670715</v>
       </c>
       <c r="L3">
-        <v>6.095490279231317</v>
+        <v>6.103102859027689</v>
       </c>
       <c r="M3">
-        <v>12.07621244400476</v>
+        <v>9.548490670189416</v>
       </c>
       <c r="N3">
-        <v>14.05252815348844</v>
+        <v>13.64617883135881</v>
       </c>
       <c r="O3">
-        <v>23.83937698469429</v>
+        <v>17.31287979610381</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.4605654049402</v>
+        <v>12.02317677628515</v>
       </c>
       <c r="C4">
-        <v>10.35382947259131</v>
+        <v>7.45065427896818</v>
       </c>
       <c r="D4">
-        <v>4.778702223571804</v>
+        <v>5.0906494572216</v>
       </c>
       <c r="E4">
-        <v>6.641870496073008</v>
+        <v>7.87196932448815</v>
       </c>
       <c r="F4">
-        <v>29.27266552569708</v>
+        <v>20.49274765582473</v>
       </c>
       <c r="G4">
-        <v>2.113663916942219</v>
+        <v>2.11506864628493</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.69110196117571</v>
+        <v>9.769377692973519</v>
       </c>
       <c r="L4">
-        <v>6.051771252381634</v>
+        <v>6.055978405867155</v>
       </c>
       <c r="M4">
-        <v>11.7713197586971</v>
+        <v>9.354960058524741</v>
       </c>
       <c r="N4">
-        <v>14.19994064440855</v>
+        <v>13.77243678439999</v>
       </c>
       <c r="O4">
-        <v>23.47806991046005</v>
+        <v>17.30730149092498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12101270999701</v>
+        <v>11.8053614744707</v>
       </c>
       <c r="C5">
-        <v>10.1745654867719</v>
+        <v>7.442870898855242</v>
       </c>
       <c r="D5">
-        <v>4.798199932441422</v>
+        <v>5.057925547536644</v>
       </c>
       <c r="E5">
-        <v>6.652537906149616</v>
+        <v>7.87538454953297</v>
       </c>
       <c r="F5">
-        <v>29.01830532527739</v>
+        <v>20.42739391065274</v>
       </c>
       <c r="G5">
-        <v>2.115954139191862</v>
+        <v>2.116282640831354</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.37500210563028</v>
+        <v>9.597432403746389</v>
       </c>
       <c r="L5">
-        <v>6.034655663803075</v>
+        <v>6.037327955898093</v>
       </c>
       <c r="M5">
-        <v>11.64671546595447</v>
+        <v>9.275891031847525</v>
       </c>
       <c r="N5">
-        <v>14.2609136553474</v>
+        <v>13.82463358204934</v>
       </c>
       <c r="O5">
-        <v>23.3347906242182</v>
+        <v>17.30798426250085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06418199557151</v>
+        <v>11.76885304816702</v>
       </c>
       <c r="C6">
-        <v>10.14451279386066</v>
+        <v>7.441584116126173</v>
       </c>
       <c r="D6">
-        <v>4.801443751411839</v>
+        <v>5.052461418409268</v>
       </c>
       <c r="E6">
-        <v>6.654327661994701</v>
+        <v>7.876005868363997</v>
       </c>
       <c r="F6">
-        <v>28.9762733912677</v>
+        <v>20.41675488206099</v>
       </c>
       <c r="G6">
-        <v>2.116336733699933</v>
+        <v>2.116485683703603</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.3219188040295</v>
+        <v>9.568569774623112</v>
       </c>
       <c r="L6">
-        <v>6.031855790392902</v>
+        <v>6.034264759279155</v>
       </c>
       <c r="M6">
-        <v>11.62600846825977</v>
+        <v>9.262752920839866</v>
       </c>
       <c r="N6">
-        <v>14.27109303969148</v>
+        <v>13.83334641889723</v>
       </c>
       <c r="O6">
-        <v>23.31123883085149</v>
+        <v>17.30827338247434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45601629712124</v>
+        <v>12.02026217131114</v>
       </c>
       <c r="C7">
-        <v>10.35143105307122</v>
+        <v>7.450548931546078</v>
       </c>
       <c r="D7">
-        <v>4.778964771087561</v>
+        <v>5.090210181919887</v>
       </c>
       <c r="E7">
-        <v>6.642013123287695</v>
+        <v>7.872011735646009</v>
       </c>
       <c r="F7">
-        <v>29.2692215849331</v>
+        <v>20.49185198577221</v>
       </c>
       <c r="G7">
-        <v>2.113694650138483</v>
+        <v>2.115084921037606</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.68687875990348</v>
+        <v>9.767079675211514</v>
       </c>
       <c r="L7">
-        <v>6.051537596271972</v>
+        <v>6.055724626503115</v>
       </c>
       <c r="M7">
-        <v>11.76964052453094</v>
+        <v>9.353894371653622</v>
       </c>
       <c r="N7">
-        <v>14.20075927930117</v>
+        <v>13.77313768396451</v>
       </c>
       <c r="O7">
-        <v>23.47612154540927</v>
+        <v>17.3072988560682</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.11833193684887</v>
+        <v>13.07911908629195</v>
       </c>
       <c r="C8">
-        <v>11.22276842490066</v>
+        <v>7.490927038922074</v>
       </c>
       <c r="D8">
-        <v>4.680532536665667</v>
+        <v>5.252204669196721</v>
       </c>
       <c r="E8">
-        <v>6.590363710538562</v>
+        <v>7.862405492064009</v>
       </c>
       <c r="F8">
-        <v>30.5900355937433</v>
+        <v>20.85429530288423</v>
       </c>
       <c r="G8">
-        <v>2.102359873476174</v>
+        <v>2.10911284916979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.21159843195288</v>
+        <v>10.59752880700539</v>
       </c>
       <c r="L8">
-        <v>6.144548198642505</v>
+        <v>6.155250211281167</v>
       </c>
       <c r="M8">
-        <v>12.39987734880838</v>
+        <v>9.753979588249816</v>
       </c>
       <c r="N8">
-        <v>13.89826525746074</v>
+        <v>13.51394325950191</v>
       </c>
       <c r="O8">
-        <v>24.238373949907</v>
+        <v>17.32920235905589</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.18367355803935</v>
+        <v>15.04160790691949</v>
       </c>
       <c r="C9">
-        <v>12.78129389794014</v>
+        <v>7.57304366591674</v>
       </c>
       <c r="D9">
-        <v>4.488712262306359</v>
+        <v>5.551915079452883</v>
       </c>
       <c r="E9">
-        <v>6.498894082525449</v>
+        <v>7.873699664771568</v>
       </c>
       <c r="F9">
-        <v>33.26741129994624</v>
+        <v>21.67688095794678</v>
       </c>
       <c r="G9">
-        <v>2.081183383706928</v>
+        <v>2.09812263180317</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.90086136531315</v>
+        <v>12.06070019153471</v>
       </c>
       <c r="L9">
-        <v>6.349342954454579</v>
+        <v>6.367026037838534</v>
       </c>
       <c r="M9">
-        <v>13.61335629534121</v>
+        <v>10.52377310825901</v>
       </c>
       <c r="N9">
-        <v>13.33245332498917</v>
+        <v>13.02762872163865</v>
       </c>
       <c r="O9">
-        <v>25.85597382003961</v>
+        <v>17.47250262672421</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.39701403154922</v>
+        <v>16.41588317939522</v>
       </c>
       <c r="C10">
-        <v>13.83633679933225</v>
+        <v>7.635178115209482</v>
       </c>
       <c r="D10">
-        <v>4.346878648246128</v>
+        <v>5.75999567875721</v>
       </c>
       <c r="E10">
-        <v>6.437847058377975</v>
+        <v>7.901559651314134</v>
       </c>
       <c r="F10">
-        <v>35.27837604340186</v>
+        <v>22.34883880767407</v>
       </c>
       <c r="G10">
-        <v>2.066146075959864</v>
+        <v>2.090456752312404</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.70096865763377</v>
+        <v>13.03443547445856</v>
       </c>
       <c r="L10">
-        <v>6.513720351211377</v>
+        <v>6.532015695197995</v>
       </c>
       <c r="M10">
-        <v>14.48475706293228</v>
+        <v>11.07473406469613</v>
       </c>
       <c r="N10">
-        <v>12.93269851927136</v>
+        <v>12.68233995728511</v>
       </c>
       <c r="O10">
-        <v>27.11833851088333</v>
+        <v>17.64439948073935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.36116567968611</v>
+        <v>17.00830423624726</v>
       </c>
       <c r="C11">
-        <v>14.29740168105253</v>
+        <v>7.663842870383582</v>
       </c>
       <c r="D11">
-        <v>4.281746024644711</v>
+        <v>5.851813614654682</v>
       </c>
       <c r="E11">
-        <v>6.411462745208156</v>
+        <v>7.918733630643928</v>
       </c>
       <c r="F11">
-        <v>36.20162727867541</v>
+        <v>22.66895213636535</v>
       </c>
       <c r="G11">
-        <v>2.059388764934448</v>
+        <v>2.087050884829009</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.48354874381372</v>
+        <v>13.45549977423256</v>
       </c>
       <c r="L11">
-        <v>6.591589657090145</v>
+        <v>6.608953345212898</v>
       </c>
       <c r="M11">
-        <v>14.87607557771971</v>
+        <v>11.32121982236272</v>
       </c>
       <c r="N11">
-        <v>12.75418945313433</v>
+        <v>12.52754385418024</v>
       </c>
       <c r="O11">
-        <v>27.70874883587946</v>
+        <v>17.73817123104251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.72028931597072</v>
+        <v>17.22798447740626</v>
       </c>
       <c r="C12">
-        <v>14.46935113999782</v>
+        <v>7.674755576256263</v>
       </c>
       <c r="D12">
-        <v>4.256955191351179</v>
+        <v>5.886158854660715</v>
       </c>
       <c r="E12">
-        <v>6.401676534872689</v>
+        <v>7.925904405483243</v>
       </c>
       <c r="F12">
-        <v>36.55242492475361</v>
+        <v>22.79221796911147</v>
       </c>
       <c r="G12">
-        <v>2.05683917884551</v>
+        <v>2.085772251326646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.77483433770755</v>
+        <v>13.61181128046417</v>
       </c>
       <c r="L12">
-        <v>6.621528499725223</v>
+        <v>6.638344755641679</v>
       </c>
       <c r="M12">
-        <v>15.07687495866358</v>
+        <v>11.41389152782423</v>
       </c>
       <c r="N12">
-        <v>12.68706939774287</v>
+        <v>12.46922628252084</v>
       </c>
       <c r="O12">
-        <v>27.93467759021598</v>
+        <v>17.77600597685923</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.64320874829312</v>
+        <v>17.18087867333785</v>
       </c>
       <c r="C13">
-        <v>14.43243516440026</v>
+        <v>7.672402739570125</v>
       </c>
       <c r="D13">
-        <v>4.262300629647509</v>
+        <v>5.878781096848939</v>
       </c>
       <c r="E13">
-        <v>6.403774953870804</v>
+        <v>7.924330049704118</v>
       </c>
       <c r="F13">
-        <v>36.4768217049524</v>
+        <v>22.76557997043988</v>
       </c>
       <c r="G13">
-        <v>2.057387912104048</v>
+        <v>2.086047144548505</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.71232316447106</v>
+        <v>13.5782860477882</v>
       </c>
       <c r="L13">
-        <v>6.615060429576911</v>
+        <v>6.632003586772956</v>
       </c>
       <c r="M13">
-        <v>15.03378160900684</v>
+        <v>11.39396370662087</v>
       </c>
       <c r="N13">
-        <v>12.70150366545574</v>
+        <v>12.48177310552408</v>
       </c>
       <c r="O13">
-        <v>27.88591434165064</v>
+        <v>17.76775283132836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.39082983291611</v>
+        <v>17.02647048720102</v>
       </c>
       <c r="C14">
-        <v>14.31160064479622</v>
+        <v>7.664739499160389</v>
       </c>
       <c r="D14">
-        <v>4.279709240229153</v>
+        <v>5.854647805863876</v>
       </c>
       <c r="E14">
-        <v>6.410653484159814</v>
+        <v>7.919310084513471</v>
       </c>
       <c r="F14">
-        <v>36.23046390173697</v>
+        <v>22.67905246615011</v>
       </c>
       <c r="G14">
-        <v>2.059178839868153</v>
+        <v>2.086945472135302</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.50761344640527</v>
+        <v>13.46842238729175</v>
       </c>
       <c r="L14">
-        <v>6.594043651265219</v>
+        <v>6.611366326369193</v>
       </c>
       <c r="M14">
-        <v>14.89266430226184</v>
+        <v>11.32885771827358</v>
       </c>
       <c r="N14">
-        <v>12.74865787757507</v>
+        <v>12.52274017392381</v>
       </c>
       <c r="O14">
-        <v>27.72728869373661</v>
+        <v>17.74123683333696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.23546691122862</v>
+        <v>16.93128613512223</v>
       </c>
       <c r="C15">
-        <v>14.23724374938626</v>
+        <v>7.660053114822583</v>
       </c>
       <c r="D15">
-        <v>4.290354820302718</v>
+        <v>5.839809776395155</v>
       </c>
       <c r="E15">
-        <v>6.414893658861249</v>
+        <v>7.916322718047786</v>
       </c>
       <c r="F15">
-        <v>36.07971660594834</v>
+        <v>22.62631738306172</v>
       </c>
       <c r="G15">
-        <v>2.060276955711858</v>
+        <v>2.087497149930666</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.38156875329389</v>
+        <v>13.40071971348993</v>
       </c>
       <c r="L15">
-        <v>6.581229287549778</v>
+        <v>6.598758442222707</v>
       </c>
       <c r="M15">
-        <v>14.82454021697657</v>
+        <v>11.28888961820107</v>
       </c>
       <c r="N15">
-        <v>12.77760336174192</v>
+        <v>12.54787196919066</v>
       </c>
       <c r="O15">
-        <v>27.63043374137397</v>
+        <v>17.72530034922125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.33315837520388</v>
+        <v>16.37651256472421</v>
       </c>
       <c r="C16">
-        <v>13.80583079150823</v>
+        <v>7.63331288523344</v>
       </c>
       <c r="D16">
-        <v>4.35111971119609</v>
+        <v>5.753936629516598</v>
       </c>
       <c r="E16">
-        <v>6.439599686518218</v>
+        <v>7.900529582172592</v>
       </c>
       <c r="F16">
-        <v>35.21820539928521</v>
+        <v>22.32820661818193</v>
       </c>
       <c r="G16">
-        <v>2.06658913180404</v>
+        <v>2.090680920171296</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.64910810811187</v>
+        <v>13.00647826956289</v>
       </c>
       <c r="L16">
-        <v>6.508694175068815</v>
+        <v>6.52702432636501</v>
       </c>
       <c r="M16">
-        <v>14.45908456672088</v>
+        <v>11.05853590483376</v>
       </c>
       <c r="N16">
-        <v>12.94443138271326</v>
+        <v>12.69249978958332</v>
       </c>
       <c r="O16">
-        <v>27.0800808234573</v>
+        <v>17.63859208663825</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.7687908274803</v>
+        <v>16.02782674376065</v>
       </c>
       <c r="C17">
-        <v>13.53638196324964</v>
+        <v>7.617011245771145</v>
       </c>
       <c r="D17">
-        <v>4.388214227838187</v>
+        <v>5.700517209219051</v>
       </c>
       <c r="E17">
-        <v>6.455114761190475</v>
+        <v>7.892008093008697</v>
       </c>
       <c r="F17">
-        <v>34.69182020807272</v>
+        <v>22.14900209838445</v>
       </c>
       <c r="G17">
-        <v>2.070480924596838</v>
+        <v>2.092654481815681</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.1905796678422</v>
+        <v>12.75902320001646</v>
       </c>
       <c r="L17">
-        <v>6.464992610041745</v>
+        <v>6.483490002626205</v>
       </c>
       <c r="M17">
-        <v>14.2335005247259</v>
+        <v>10.91610545069657</v>
       </c>
       <c r="N17">
-        <v>13.04762725287853</v>
+        <v>12.78178875250782</v>
       </c>
       <c r="O17">
-        <v>26.74660757341682</v>
+        <v>17.58945051014219</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.44015063243662</v>
+        <v>15.82418668591261</v>
       </c>
       <c r="C18">
-        <v>13.37962007282639</v>
+        <v>7.607672529037372</v>
       </c>
       <c r="D18">
-        <v>4.409494978180447</v>
+        <v>5.669525402435906</v>
       </c>
       <c r="E18">
-        <v>6.464168711222983</v>
+        <v>7.887529153727693</v>
       </c>
       <c r="F18">
-        <v>34.38985171172324</v>
+        <v>22.04728921454793</v>
       </c>
       <c r="G18">
-        <v>2.072727393023318</v>
+        <v>2.093797320484092</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.92341947521699</v>
+        <v>12.61463185066262</v>
       </c>
       <c r="L18">
-        <v>6.440147280596905</v>
+        <v>6.458628274981848</v>
       </c>
       <c r="M18">
-        <v>14.10325655601213</v>
+        <v>10.83379627395088</v>
       </c>
       <c r="N18">
-        <v>13.10729724309143</v>
+        <v>12.83336148375419</v>
       </c>
       <c r="O18">
-        <v>26.55631978404928</v>
+        <v>17.56264663942282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.32818183081244</v>
+        <v>15.75470622975338</v>
       </c>
       <c r="C19">
-        <v>13.32623525510534</v>
+        <v>7.604517037637342</v>
       </c>
       <c r="D19">
-        <v>4.416691926889659</v>
+        <v>5.658986874128737</v>
       </c>
       <c r="E19">
-        <v>6.467256412089048</v>
+        <v>7.88608458960554</v>
       </c>
       <c r="F19">
-        <v>34.28774871326142</v>
+        <v>22.01308558391499</v>
       </c>
       <c r="G19">
-        <v>2.073489462806209</v>
+        <v>2.094185606148438</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.83237043682701</v>
+        <v>12.56538905002651</v>
       </c>
       <c r="L19">
-        <v>6.431784827759376</v>
+        <v>6.450241535618365</v>
       </c>
       <c r="M19">
-        <v>14.05907515782715</v>
+        <v>10.80586364846176</v>
       </c>
       <c r="N19">
-        <v>13.12755464846852</v>
+        <v>12.85086103909703</v>
       </c>
       <c r="O19">
-        <v>26.49215171543581</v>
+        <v>17.55381958463437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.82928479913809</v>
+        <v>16.06526388173222</v>
       </c>
       <c r="C20">
-        <v>13.56524923262832</v>
+        <v>7.618742693179802</v>
       </c>
       <c r="D20">
-        <v>4.38427141446744</v>
+        <v>5.706231486901607</v>
       </c>
       <c r="E20">
-        <v>6.453449653958764</v>
+        <v>7.892871356667391</v>
       </c>
       <c r="F20">
-        <v>34.74777301689867</v>
+        <v>22.16793809818467</v>
       </c>
       <c r="G20">
-        <v>2.070065826123987</v>
+        <v>2.09244360036614</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.2397443487525</v>
+        <v>12.78557852927119</v>
       </c>
       <c r="L20">
-        <v>6.46961459270296</v>
+        <v>6.48810597927187</v>
       </c>
       <c r="M20">
-        <v>14.25756587287391</v>
+        <v>10.93130800437474</v>
       </c>
       <c r="N20">
-        <v>13.03660936770019</v>
+        <v>12.7722616181887</v>
       </c>
       <c r="O20">
-        <v>26.78194921532561</v>
+        <v>17.59452986921485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.46512052469293</v>
+        <v>17.07194987571941</v>
       </c>
       <c r="C21">
-        <v>14.34716385569908</v>
+        <v>7.666988799367802</v>
       </c>
       <c r="D21">
-        <v>4.274599672422591</v>
+        <v>5.861747970771773</v>
       </c>
       <c r="E21">
-        <v>6.408627480515131</v>
+        <v>7.920766297735761</v>
       </c>
       <c r="F21">
-        <v>36.30279305114922</v>
+        <v>22.70441241473006</v>
       </c>
       <c r="G21">
-        <v>2.058652572618278</v>
+        <v>2.086681315460866</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.56787765956653</v>
+        <v>13.50077700769824</v>
       </c>
       <c r="L21">
-        <v>6.600204474059936</v>
+        <v>6.617421130136236</v>
       </c>
       <c r="M21">
-        <v>14.93420707119926</v>
+        <v>11.34799954378635</v>
       </c>
       <c r="N21">
-        <v>12.73479458537376</v>
+        <v>12.51069922539068</v>
       </c>
       <c r="O21">
-        <v>27.77381664339768</v>
+        <v>17.74896144548651</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.49947091026803</v>
+        <v>17.70275959183481</v>
       </c>
       <c r="C22">
-        <v>14.84281107355099</v>
+        <v>7.698858840749367</v>
       </c>
       <c r="D22">
-        <v>4.202164164100992</v>
+        <v>5.960908051156824</v>
       </c>
       <c r="E22">
-        <v>6.380531662406941</v>
+        <v>7.942896406287437</v>
       </c>
       <c r="F22">
-        <v>37.32600691217417</v>
+        <v>23.0669396608262</v>
       </c>
       <c r="G22">
-        <v>2.05124586411782</v>
+        <v>2.082979689133641</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.40647683821956</v>
+        <v>13.94992840031908</v>
       </c>
       <c r="L22">
-        <v>6.688188426099242</v>
+        <v>6.703426704195385</v>
       </c>
       <c r="M22">
-        <v>15.51233780034322</v>
+        <v>11.61641726801806</v>
       </c>
       <c r="N22">
-        <v>12.54032636604958</v>
+        <v>12.34149004594822</v>
       </c>
       <c r="O22">
-        <v>28.43581127920559</v>
+        <v>17.86348334114186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.95054013111289</v>
+        <v>17.36854826665019</v>
       </c>
       <c r="C23">
-        <v>14.57965537359925</v>
+        <v>7.681817988004584</v>
       </c>
       <c r="D23">
-        <v>4.240907707648719</v>
+        <v>5.908216126458687</v>
       </c>
       <c r="E23">
-        <v>6.395415160539164</v>
+        <v>7.930721743677954</v>
       </c>
       <c r="F23">
-        <v>36.77926131264545</v>
+        <v>22.87237248780012</v>
       </c>
       <c r="G23">
-        <v>2.055195129363995</v>
+        <v>2.084949637940691</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.96153581908236</v>
+        <v>13.71187447349494</v>
       </c>
       <c r="L23">
-        <v>6.640985801430434</v>
+        <v>6.657392015900343</v>
       </c>
       <c r="M23">
-        <v>15.20558436007895</v>
+        <v>11.4735366240472</v>
       </c>
       <c r="N23">
-        <v>12.64386258654369</v>
+        <v>12.43165061355589</v>
       </c>
       <c r="O23">
-        <v>28.08121622793982</v>
+        <v>17.80108965371062</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.80194849933918</v>
+        <v>16.04834844787673</v>
       </c>
       <c r="C24">
-        <v>13.55220411427448</v>
+        <v>7.617959802080778</v>
       </c>
       <c r="D24">
-        <v>4.386054098890191</v>
+        <v>5.703648933710914</v>
       </c>
       <c r="E24">
-        <v>6.454202031571457</v>
+        <v>7.892479767938483</v>
       </c>
       <c r="F24">
-        <v>34.72247470122332</v>
+        <v>22.15937303701237</v>
       </c>
       <c r="G24">
-        <v>2.07025346383157</v>
+        <v>2.092538914246116</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.21752805363265</v>
+        <v>12.77357948817418</v>
       </c>
       <c r="L24">
-        <v>6.467524124909906</v>
+        <v>6.486018575820532</v>
       </c>
       <c r="M24">
-        <v>14.24668764664199</v>
+        <v>10.92443624510214</v>
       </c>
       <c r="N24">
-        <v>13.04158949019235</v>
+        <v>12.77656808816022</v>
       </c>
       <c r="O24">
-        <v>26.76596680544138</v>
+        <v>17.59222898645258</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34122260310377</v>
+        <v>14.5061494732218</v>
       </c>
       <c r="C25">
-        <v>12.37564611492988</v>
+        <v>7.550513742819458</v>
       </c>
       <c r="D25">
-        <v>4.540634994255645</v>
+        <v>5.472885438085602</v>
       </c>
       <c r="E25">
-        <v>6.52257273235571</v>
+        <v>7.867294559261344</v>
       </c>
       <c r="F25">
-        <v>32.53486521995587</v>
+        <v>21.44240603205721</v>
       </c>
       <c r="G25">
-        <v>2.086811393380862</v>
+        <v>2.101021688887815</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.20477868563346</v>
+        <v>11.68265594392777</v>
       </c>
       <c r="L25">
-        <v>6.291516472289779</v>
+        <v>6.308030118247776</v>
       </c>
       <c r="M25">
-        <v>13.28823088924907</v>
+        <v>10.31772004452166</v>
       </c>
       <c r="N25">
-        <v>13.48267300981159</v>
+        <v>13.15697693803802</v>
       </c>
       <c r="O25">
-        <v>25.405354578942</v>
+        <v>17.42242117899454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.35341854327153</v>
+        <v>12.56409124099735</v>
       </c>
       <c r="C2">
-        <v>7.502065876147753</v>
+        <v>7.828341038350667</v>
       </c>
       <c r="D2">
-        <v>5.29492896186673</v>
+        <v>5.38866281335583</v>
       </c>
       <c r="E2">
-        <v>7.861797116312233</v>
+        <v>8.731537556307121</v>
       </c>
       <c r="F2">
-        <v>20.96006961769497</v>
+        <v>17.19756508585595</v>
       </c>
       <c r="G2">
-        <v>2.107544605239478</v>
+        <v>21.07576778999865</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.12712803402932</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.805525446546483</v>
       </c>
       <c r="K2">
-        <v>10.81138873607038</v>
+        <v>14.42684159991884</v>
       </c>
       <c r="L2">
-        <v>6.183366007855216</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.861612721246276</v>
+        <v>10.80256488861375</v>
       </c>
       <c r="N2">
-        <v>13.44525002080203</v>
+        <v>6.836664073666354</v>
       </c>
       <c r="O2">
-        <v>17.34172002906405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.580222604116168</v>
+      </c>
+      <c r="P2">
+        <v>12.63653276715223</v>
+      </c>
+      <c r="Q2">
+        <v>14.14130481439974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.54365782747848</v>
+        <v>11.74860382091566</v>
       </c>
       <c r="C3">
-        <v>7.469983130192964</v>
+        <v>7.727233826020146</v>
       </c>
       <c r="D3">
-        <v>5.169689100768188</v>
+        <v>5.170722722649894</v>
       </c>
       <c r="E3">
-        <v>7.865815218791139</v>
+        <v>8.608918939868786</v>
       </c>
       <c r="F3">
-        <v>20.66179385613064</v>
+        <v>16.95070371606504</v>
       </c>
       <c r="G3">
-        <v>2.112148381617373</v>
+        <v>20.82562965141573</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.297952333499248</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.842336695002754</v>
       </c>
       <c r="K3">
-        <v>10.17862157670715</v>
+        <v>14.50404020765356</v>
       </c>
       <c r="L3">
-        <v>6.103102859027689</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.548490670189416</v>
+        <v>10.25284061601622</v>
       </c>
       <c r="N3">
-        <v>13.64617883135881</v>
+        <v>6.676675519347078</v>
       </c>
       <c r="O3">
-        <v>17.31287979610381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.217527149694391</v>
+      </c>
+      <c r="P3">
+        <v>12.77170044650947</v>
+      </c>
+      <c r="Q3">
+        <v>14.13726908904277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.02317677628515</v>
+        <v>11.2175230486637</v>
       </c>
       <c r="C4">
-        <v>7.45065427896818</v>
+        <v>7.663825323496367</v>
       </c>
       <c r="D4">
-        <v>5.0906494572216</v>
+        <v>5.031238278861601</v>
       </c>
       <c r="E4">
-        <v>7.87196932448815</v>
+        <v>8.532262450902504</v>
       </c>
       <c r="F4">
-        <v>20.49274765582473</v>
+        <v>16.80803655775414</v>
       </c>
       <c r="G4">
-        <v>2.11506864628493</v>
+        <v>20.68585855692178</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.406742114992848</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.868360601985565</v>
       </c>
       <c r="K4">
-        <v>9.769377692973519</v>
+        <v>14.55766363754715</v>
       </c>
       <c r="L4">
-        <v>6.055978405867155</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.354960058524741</v>
+        <v>9.898759898133685</v>
       </c>
       <c r="N4">
-        <v>13.77243678439999</v>
+        <v>6.576245493098034</v>
       </c>
       <c r="O4">
-        <v>17.30730149092498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.988111552862193</v>
+      </c>
+      <c r="P4">
+        <v>12.85678752959146</v>
+      </c>
+      <c r="Q4">
+        <v>14.14227207972171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8053614744707</v>
+        <v>10.99345181322887</v>
       </c>
       <c r="C5">
-        <v>7.442870898855242</v>
+        <v>7.637658965984429</v>
       </c>
       <c r="D5">
-        <v>5.057925547536644</v>
+        <v>4.973013430140563</v>
       </c>
       <c r="E5">
-        <v>7.87538454953297</v>
+        <v>8.500690611813146</v>
       </c>
       <c r="F5">
-        <v>20.42739391065274</v>
+        <v>16.75216124744972</v>
       </c>
       <c r="G5">
-        <v>2.116282640831354</v>
+        <v>20.6323474427101</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.452067259521761</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.87980665087807</v>
       </c>
       <c r="K5">
-        <v>9.597432403746389</v>
+        <v>14.58103968455606</v>
       </c>
       <c r="L5">
-        <v>6.037327955898093</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.275891031847525</v>
+        <v>9.750394496746759</v>
       </c>
       <c r="N5">
-        <v>13.82463358204934</v>
+        <v>6.534801218945822</v>
       </c>
       <c r="O5">
-        <v>17.30798426250085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.893048698709507</v>
+      </c>
+      <c r="P5">
+        <v>12.89199561124891</v>
+      </c>
+      <c r="Q5">
+        <v>14.14614325090343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.76885304816702</v>
+        <v>10.95578245820967</v>
       </c>
       <c r="C6">
-        <v>7.441584116126173</v>
+        <v>7.633294536565936</v>
       </c>
       <c r="D6">
-        <v>5.052461418409268</v>
+        <v>4.963262994114644</v>
       </c>
       <c r="E6">
-        <v>7.876005868363997</v>
+        <v>8.495428287052171</v>
       </c>
       <c r="F6">
-        <v>20.41675488206099</v>
+        <v>16.74302039080245</v>
       </c>
       <c r="G6">
-        <v>2.116485683703603</v>
+        <v>20.62366913220559</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.459653721712744</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.881757504163353</v>
       </c>
       <c r="K6">
-        <v>9.568569774623112</v>
+        <v>14.58501214117775</v>
       </c>
       <c r="L6">
-        <v>6.034264759279155</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.262752920839866</v>
+        <v>9.725515319132718</v>
       </c>
       <c r="N6">
-        <v>13.83334641889723</v>
+        <v>6.527889164607055</v>
       </c>
       <c r="O6">
-        <v>17.30827338247434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.87717214189111</v>
+      </c>
+      <c r="P6">
+        <v>12.89787439228868</v>
+      </c>
+      <c r="Q6">
+        <v>14.14689528963028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02026217131114</v>
+        <v>11.21453214370738</v>
       </c>
       <c r="C7">
-        <v>7.450548931546078</v>
+        <v>7.663473748634636</v>
       </c>
       <c r="D7">
-        <v>5.090210181919887</v>
+        <v>5.030458581822891</v>
       </c>
       <c r="E7">
-        <v>7.872011735646009</v>
+        <v>8.53183799924099</v>
       </c>
       <c r="F7">
-        <v>20.49185198577221</v>
+        <v>16.80727381687578</v>
       </c>
       <c r="G7">
-        <v>2.115084921037606</v>
+        <v>20.6851229753679</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.407349353070584</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.86851158695152</v>
       </c>
       <c r="K7">
-        <v>9.767079675211514</v>
+        <v>14.55797277714103</v>
       </c>
       <c r="L7">
-        <v>6.055724626503115</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.353894371653622</v>
+        <v>9.896775361140808</v>
       </c>
       <c r="N7">
-        <v>13.77313768396451</v>
+        <v>6.575688612894974</v>
       </c>
       <c r="O7">
-        <v>17.3072988560682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.986835713403888</v>
+      </c>
+      <c r="P7">
+        <v>12.85726018390006</v>
+      </c>
+      <c r="Q7">
+        <v>14.14231693324195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.07911908629195</v>
+        <v>12.28920372756183</v>
       </c>
       <c r="C8">
-        <v>7.490927038922074</v>
+        <v>7.793759066821998</v>
       </c>
       <c r="D8">
-        <v>5.252204669196721</v>
+        <v>5.314716606551073</v>
       </c>
       <c r="E8">
-        <v>7.862405492064009</v>
+        <v>8.689548677985913</v>
       </c>
       <c r="F8">
-        <v>20.85429530288423</v>
+        <v>17.11061461164754</v>
       </c>
       <c r="G8">
-        <v>2.10911284916979</v>
+        <v>20.98663991836751</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.185224911584253</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.817496026050527</v>
       </c>
       <c r="K8">
-        <v>10.59752880700539</v>
+        <v>14.45214311185279</v>
       </c>
       <c r="L8">
-        <v>6.155250211281167</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.753979588249816</v>
+        <v>10.6165009330079</v>
       </c>
       <c r="N8">
-        <v>13.51394325950191</v>
+        <v>6.781975689990667</v>
       </c>
       <c r="O8">
-        <v>17.32920235905589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.456624992395229</v>
+      </c>
+      <c r="P8">
+        <v>12.68270892858591</v>
+      </c>
+      <c r="Q8">
+        <v>14.13833155715461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.04160790691949</v>
+        <v>14.15655367314159</v>
       </c>
       <c r="C9">
-        <v>7.57304366591674</v>
+        <v>8.038428333266982</v>
       </c>
       <c r="D9">
-        <v>5.551915079452883</v>
+        <v>5.825642075562734</v>
       </c>
       <c r="E9">
-        <v>7.873699664771568</v>
+        <v>8.987539107473113</v>
       </c>
       <c r="F9">
-        <v>21.67688095794678</v>
+        <v>17.7748132641852</v>
       </c>
       <c r="G9">
-        <v>2.09812263180317</v>
+        <v>21.6882200802708</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.780091852473555</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.745495665171834</v>
       </c>
       <c r="K9">
-        <v>12.06070019153471</v>
+        <v>14.29588359727558</v>
       </c>
       <c r="L9">
-        <v>6.367026037838534</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.52377310825901</v>
+        <v>11.8936264269199</v>
       </c>
       <c r="N9">
-        <v>13.02762872163865</v>
+        <v>7.167689613181794</v>
       </c>
       <c r="O9">
-        <v>17.47250262672421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.32014958573772</v>
+      </c>
+      <c r="P9">
+        <v>12.35665012242097</v>
+      </c>
+      <c r="Q9">
+        <v>14.19201096828375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.41588317939522</v>
+        <v>15.34832510949651</v>
       </c>
       <c r="C10">
-        <v>7.635178115209482</v>
+        <v>8.242486882526912</v>
       </c>
       <c r="D10">
-        <v>5.75999567875721</v>
+        <v>6.186657805155046</v>
       </c>
       <c r="E10">
-        <v>7.901559651314134</v>
+        <v>9.093965584318859</v>
       </c>
       <c r="F10">
-        <v>22.34883880767407</v>
+        <v>18.2303516113569</v>
       </c>
       <c r="G10">
-        <v>2.090456752312404</v>
+        <v>22.14343217862061</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.614980782883251</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.690539888763308</v>
       </c>
       <c r="K10">
-        <v>13.03443547445856</v>
+        <v>14.16223075236694</v>
       </c>
       <c r="L10">
-        <v>6.532015695197995</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.07473406469613</v>
+        <v>12.74844741326826</v>
       </c>
       <c r="N10">
-        <v>12.68233995728511</v>
+        <v>7.341725174366396</v>
       </c>
       <c r="O10">
-        <v>17.64439948073935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.82790582340258</v>
+      </c>
+      <c r="P10">
+        <v>12.12794133289445</v>
+      </c>
+      <c r="Q10">
+        <v>14.2192307692213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00830423624726</v>
+        <v>15.55955401188128</v>
       </c>
       <c r="C11">
-        <v>7.663842870383582</v>
+        <v>8.633127595229322</v>
       </c>
       <c r="D11">
-        <v>5.851813614654682</v>
+        <v>6.480227392817786</v>
       </c>
       <c r="E11">
-        <v>7.918733630643928</v>
+        <v>8.366481237513606</v>
       </c>
       <c r="F11">
-        <v>22.66895213636535</v>
+        <v>17.81368926350366</v>
       </c>
       <c r="G11">
-        <v>2.087050884829009</v>
+        <v>21.25527568769476</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.639335499674169</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.491410759761999</v>
       </c>
       <c r="K11">
-        <v>13.45549977423256</v>
+        <v>13.65468763776547</v>
       </c>
       <c r="L11">
-        <v>6.608953345212898</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.32121982236272</v>
+        <v>13.13097857490222</v>
       </c>
       <c r="N11">
-        <v>12.52754385418024</v>
+        <v>6.637149340235717</v>
       </c>
       <c r="O11">
-        <v>17.73817123104251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.30766497453428</v>
+      </c>
+      <c r="P11">
+        <v>12.05020076758145</v>
+      </c>
+      <c r="Q11">
+        <v>13.78267454951956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22798447740626</v>
+        <v>15.49433368065458</v>
       </c>
       <c r="C12">
-        <v>7.674755576256263</v>
+        <v>8.957010795610044</v>
       </c>
       <c r="D12">
-        <v>5.886158854660715</v>
+        <v>6.656852002378464</v>
       </c>
       <c r="E12">
-        <v>7.925904405483243</v>
+        <v>7.940217932610468</v>
       </c>
       <c r="F12">
-        <v>22.79221796911147</v>
+        <v>17.35014732139462</v>
       </c>
       <c r="G12">
-        <v>2.085772251326646</v>
+        <v>20.38674833372932</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.071503329293765</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.331194497851397</v>
       </c>
       <c r="K12">
-        <v>13.61181128046417</v>
+        <v>13.25595377137668</v>
       </c>
       <c r="L12">
-        <v>6.638344755641679</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.41389152782423</v>
+        <v>13.28056052202222</v>
       </c>
       <c r="N12">
-        <v>12.46922628252084</v>
+        <v>6.082417377778047</v>
       </c>
       <c r="O12">
-        <v>17.77600597685923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.758081070563179</v>
+      </c>
+      <c r="P12">
+        <v>12.04584852017519</v>
+      </c>
+      <c r="Q12">
+        <v>13.39922875367092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18087867333785</v>
+        <v>15.21066378420856</v>
       </c>
       <c r="C13">
-        <v>7.672402739570125</v>
+        <v>9.245048737299427</v>
       </c>
       <c r="D13">
-        <v>5.878781096848939</v>
+        <v>6.757761628915563</v>
       </c>
       <c r="E13">
-        <v>7.924330049704118</v>
+        <v>7.747608873325014</v>
       </c>
       <c r="F13">
-        <v>22.76557997043988</v>
+        <v>16.81358545742903</v>
       </c>
       <c r="G13">
-        <v>2.086047144548505</v>
+        <v>19.46815704964652</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.518108382147351</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.191169988054787</v>
       </c>
       <c r="K13">
-        <v>13.5782860477882</v>
+        <v>12.91903219341354</v>
       </c>
       <c r="L13">
-        <v>6.632003586772956</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.39396370662087</v>
+        <v>13.26405384846085</v>
       </c>
       <c r="N13">
-        <v>12.48177310552408</v>
+        <v>5.627628953837488</v>
       </c>
       <c r="O13">
-        <v>17.76775283132836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.142267387738242</v>
+      </c>
+      <c r="P13">
+        <v>12.0940933511191</v>
+      </c>
+      <c r="Q13">
+        <v>13.03194155447262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02647048720102</v>
+        <v>14.90916467893221</v>
       </c>
       <c r="C14">
-        <v>7.664739499160389</v>
+        <v>9.433124388174051</v>
       </c>
       <c r="D14">
-        <v>5.854647805863876</v>
+        <v>6.79521458100196</v>
       </c>
       <c r="E14">
-        <v>7.919310084513471</v>
+        <v>7.759476247462131</v>
       </c>
       <c r="F14">
-        <v>22.67905246615011</v>
+        <v>16.40257428965163</v>
       </c>
       <c r="G14">
-        <v>2.086945472135302</v>
+        <v>18.80109363323024</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.536146505655277</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.103053376524008</v>
       </c>
       <c r="K14">
-        <v>13.46842238729175</v>
+        <v>12.71539615603245</v>
       </c>
       <c r="L14">
-        <v>6.611366326369193</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.32885771827358</v>
+        <v>13.17722337343367</v>
       </c>
       <c r="N14">
-        <v>12.52274017392381</v>
+        <v>5.383104526239454</v>
       </c>
       <c r="O14">
-        <v>17.74123683333696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.677565594170554</v>
+      </c>
+      <c r="P14">
+        <v>12.15166263255228</v>
+      </c>
+      <c r="Q14">
+        <v>12.7836636956773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.93128613512223</v>
+        <v>14.78766128936527</v>
       </c>
       <c r="C15">
-        <v>7.660053114822583</v>
+        <v>9.466585766146068</v>
       </c>
       <c r="D15">
-        <v>5.839809776395155</v>
+        <v>6.78790415568693</v>
       </c>
       <c r="E15">
-        <v>7.916322718047786</v>
+        <v>7.780472289472582</v>
       </c>
       <c r="F15">
-        <v>22.62631738306172</v>
+        <v>16.28869914416866</v>
       </c>
       <c r="G15">
-        <v>2.087497149930666</v>
+        <v>18.63116448900622</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.772071030858222</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.086589403774465</v>
       </c>
       <c r="K15">
-        <v>13.40071971348993</v>
+        <v>12.67944046531267</v>
       </c>
       <c r="L15">
-        <v>6.598758442222707</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.28888961820107</v>
+        <v>13.12006612833354</v>
       </c>
       <c r="N15">
-        <v>12.54787196919066</v>
+        <v>5.334825477099663</v>
       </c>
       <c r="O15">
-        <v>17.72530034922125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.550088211612758</v>
+      </c>
+      <c r="P15">
+        <v>12.17463744439919</v>
+      </c>
+      <c r="Q15">
+        <v>12.72832817260362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.37651256472421</v>
+        <v>14.3356137610767</v>
       </c>
       <c r="C16">
-        <v>7.63331288523344</v>
+        <v>9.320264375299102</v>
       </c>
       <c r="D16">
-        <v>5.753936629516598</v>
+        <v>6.623710950864151</v>
       </c>
       <c r="E16">
-        <v>7.900529582172592</v>
+        <v>7.762394422956604</v>
       </c>
       <c r="F16">
-        <v>22.32820661818193</v>
+        <v>16.18213904148058</v>
       </c>
       <c r="G16">
-        <v>2.090680920171296</v>
+        <v>18.59518017007748</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.563866717988826</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.138034190054684</v>
       </c>
       <c r="K16">
-        <v>13.00647826956289</v>
+        <v>12.80802860055767</v>
       </c>
       <c r="L16">
-        <v>6.52702432636501</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.05853590483376</v>
+        <v>12.77171593115016</v>
       </c>
       <c r="N16">
-        <v>12.69249978958332</v>
+        <v>5.34247395156982</v>
       </c>
       <c r="O16">
-        <v>17.63859208663825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.433497570365676</v>
+      </c>
+      <c r="P16">
+        <v>12.25287678164574</v>
+      </c>
+      <c r="Q16">
+        <v>12.7876779268583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.02782674376065</v>
+        <v>14.15009549915307</v>
       </c>
       <c r="C17">
-        <v>7.617011245771145</v>
+        <v>9.103610100638754</v>
       </c>
       <c r="D17">
-        <v>5.700517209219051</v>
+        <v>6.474669067509929</v>
       </c>
       <c r="E17">
-        <v>7.892008093008697</v>
+        <v>7.7198188959408</v>
       </c>
       <c r="F17">
-        <v>22.14900209838445</v>
+        <v>16.32546599109656</v>
       </c>
       <c r="G17">
-        <v>2.092654481815681</v>
+        <v>18.92999506909802</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.830669826647852</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.224557657799361</v>
       </c>
       <c r="K17">
-        <v>12.75902320001646</v>
+        <v>13.01308701705096</v>
       </c>
       <c r="L17">
-        <v>6.483490002626205</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.91610545069657</v>
+        <v>12.54733409478915</v>
       </c>
       <c r="N17">
-        <v>12.78178875250782</v>
+        <v>5.464891505651805</v>
       </c>
       <c r="O17">
-        <v>17.58945051014219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.597172982492808</v>
+      </c>
+      <c r="P17">
+        <v>12.2836992284466</v>
+      </c>
+      <c r="Q17">
+        <v>12.9661843331133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.82418668591261</v>
+        <v>14.1806174352038</v>
       </c>
       <c r="C18">
-        <v>7.607672529037372</v>
+        <v>8.816243050139065</v>
       </c>
       <c r="D18">
-        <v>5.669525402435906</v>
+        <v>6.324307647099108</v>
       </c>
       <c r="E18">
-        <v>7.887529153727693</v>
+        <v>7.782535397699402</v>
       </c>
       <c r="F18">
-        <v>22.04728921454793</v>
+        <v>16.69308793611763</v>
       </c>
       <c r="G18">
-        <v>2.093797320484092</v>
+        <v>19.61330861382089</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.58667906504529</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.349939557531496</v>
       </c>
       <c r="K18">
-        <v>12.61463185066262</v>
+        <v>13.31118902748193</v>
       </c>
       <c r="L18">
-        <v>6.458628274981848</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.83379627395088</v>
+        <v>12.4091017794755</v>
       </c>
       <c r="N18">
-        <v>12.83336148375419</v>
+        <v>5.770779395302205</v>
       </c>
       <c r="O18">
-        <v>17.56264663942282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.023951482387767</v>
+      </c>
+      <c r="P18">
+        <v>12.2828179394063</v>
+      </c>
+      <c r="Q18">
+        <v>13.26458595083245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.75470622975338</v>
+        <v>14.38262440849059</v>
       </c>
       <c r="C19">
-        <v>7.604517037637342</v>
+        <v>8.51579033530194</v>
       </c>
       <c r="D19">
-        <v>5.658986874128737</v>
+        <v>6.186814219869801</v>
       </c>
       <c r="E19">
-        <v>7.88608458960554</v>
+        <v>8.111137263796868</v>
       </c>
       <c r="F19">
-        <v>22.01308558391499</v>
+        <v>17.20711318296284</v>
       </c>
       <c r="G19">
-        <v>2.094185606148438</v>
+        <v>20.52126607011614</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.117824288143605</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.497497954920236</v>
       </c>
       <c r="K19">
-        <v>12.56538905002651</v>
+        <v>13.6714262703802</v>
       </c>
       <c r="L19">
-        <v>6.450241535618365</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.80586364846176</v>
+        <v>12.35292361178545</v>
       </c>
       <c r="N19">
-        <v>12.85086103909703</v>
+        <v>6.287874222367408</v>
       </c>
       <c r="O19">
-        <v>17.55381958463437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.630396696620586</v>
+      </c>
+      <c r="P19">
+        <v>12.26378762918351</v>
+      </c>
+      <c r="Q19">
+        <v>13.63765987537373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.06526388173222</v>
+        <v>15.04314411424421</v>
       </c>
       <c r="C20">
-        <v>7.618742693179802</v>
+        <v>8.190632215507215</v>
       </c>
       <c r="D20">
-        <v>5.706231486901607</v>
+        <v>6.094740570474739</v>
       </c>
       <c r="E20">
-        <v>7.892871356667391</v>
+        <v>9.061500692443994</v>
       </c>
       <c r="F20">
-        <v>22.16793809818467</v>
+        <v>18.10476979391292</v>
       </c>
       <c r="G20">
-        <v>2.09244360036614</v>
+        <v>22.01345052366864</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.596309015362717</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.702815682985007</v>
       </c>
       <c r="K20">
-        <v>12.78557852927119</v>
+        <v>14.1927008590535</v>
       </c>
       <c r="L20">
-        <v>6.48810597927187</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.93130800437474</v>
+        <v>12.52988944297966</v>
       </c>
       <c r="N20">
-        <v>12.7722616181887</v>
+        <v>7.292290728698888</v>
       </c>
       <c r="O20">
-        <v>17.59452986921485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.69308585269283</v>
+      </c>
+      <c r="P20">
+        <v>12.18730830553648</v>
+      </c>
+      <c r="Q20">
+        <v>14.20696975501761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.07194987571941</v>
+        <v>15.96720904456649</v>
       </c>
       <c r="C21">
-        <v>7.666988799367802</v>
+        <v>8.29670729938624</v>
       </c>
       <c r="D21">
-        <v>5.861747970771773</v>
+        <v>6.337522873744775</v>
       </c>
       <c r="E21">
-        <v>7.920766297735761</v>
+        <v>9.303881191220714</v>
       </c>
       <c r="F21">
-        <v>22.70441241473006</v>
+        <v>18.5788151399224</v>
       </c>
       <c r="G21">
-        <v>2.086681315460866</v>
+        <v>22.58201566641344</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.753095132918369</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.698412520413852</v>
       </c>
       <c r="K21">
-        <v>13.50077700769824</v>
+        <v>14.18337353444394</v>
       </c>
       <c r="L21">
-        <v>6.617421130136236</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.34799954378635</v>
+        <v>13.15632556505663</v>
       </c>
       <c r="N21">
-        <v>12.51069922539068</v>
+        <v>7.570643020450326</v>
       </c>
       <c r="O21">
-        <v>17.74896144548651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.20321013268915</v>
+      </c>
+      <c r="P21">
+        <v>12.01245440755901</v>
+      </c>
+      <c r="Q21">
+        <v>14.3227391785758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.70275959183481</v>
+        <v>16.52699382232237</v>
       </c>
       <c r="C22">
-        <v>7.698858840749367</v>
+        <v>8.380563911922613</v>
       </c>
       <c r="D22">
-        <v>5.960908051156824</v>
+        <v>6.4984703217465</v>
       </c>
       <c r="E22">
-        <v>7.942896406287437</v>
+        <v>9.406861552967916</v>
       </c>
       <c r="F22">
-        <v>23.0669396608262</v>
+        <v>18.85796725561122</v>
       </c>
       <c r="G22">
-        <v>2.082979689133641</v>
+        <v>22.90019095440678</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.88364489638375</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.688870142231963</v>
       </c>
       <c r="K22">
-        <v>13.94992840031908</v>
+        <v>14.15741518497853</v>
       </c>
       <c r="L22">
-        <v>6.703426704195385</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.61641726801806</v>
+        <v>13.55053074779057</v>
       </c>
       <c r="N22">
-        <v>12.34149004594822</v>
+        <v>7.70033042090357</v>
       </c>
       <c r="O22">
-        <v>17.86348334114186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.48367402046361</v>
+      </c>
+      <c r="P22">
+        <v>11.90037940058738</v>
+      </c>
+      <c r="Q22">
+        <v>14.37970784270263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.36854826665019</v>
+        <v>16.23058553845383</v>
       </c>
       <c r="C23">
-        <v>7.681817988004584</v>
+        <v>8.335930706319644</v>
       </c>
       <c r="D23">
-        <v>5.908216126458687</v>
+        <v>6.413103846204636</v>
       </c>
       <c r="E23">
-        <v>7.930721743677954</v>
+        <v>9.352036045357369</v>
       </c>
       <c r="F23">
-        <v>22.87237248780012</v>
+        <v>18.70839515901007</v>
       </c>
       <c r="G23">
-        <v>2.084949637940691</v>
+        <v>22.72928017965589</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.814232317731529</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.693613366682234</v>
       </c>
       <c r="K23">
-        <v>13.71187447349494</v>
+        <v>14.17060928714151</v>
       </c>
       <c r="L23">
-        <v>6.657392015900343</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.4735366240472</v>
+        <v>13.34159589799007</v>
       </c>
       <c r="N23">
-        <v>12.43165061355589</v>
+        <v>7.631377250426056</v>
       </c>
       <c r="O23">
-        <v>17.80108965371062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.33476949558643</v>
+      </c>
+      <c r="P23">
+        <v>11.96005890204757</v>
+      </c>
+      <c r="Q23">
+        <v>14.34854508315416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.04834844787673</v>
+        <v>15.05599313802467</v>
       </c>
       <c r="C24">
-        <v>7.617959802080778</v>
+        <v>8.164215446415451</v>
       </c>
       <c r="D24">
-        <v>5.703648933710914</v>
+        <v>6.078142336098015</v>
       </c>
       <c r="E24">
-        <v>7.892479767938483</v>
+        <v>9.1414238362121</v>
       </c>
       <c r="F24">
-        <v>22.15937303701237</v>
+        <v>18.15501774865419</v>
       </c>
       <c r="G24">
-        <v>2.092538914246116</v>
+        <v>22.10617952906061</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.576042574457999</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.719117337156273</v>
       </c>
       <c r="K24">
-        <v>12.77357948817418</v>
+        <v>14.23477680885463</v>
       </c>
       <c r="L24">
-        <v>6.486018575820532</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.92443624510214</v>
+        <v>12.51831908468891</v>
       </c>
       <c r="N24">
-        <v>12.77656808816022</v>
+        <v>7.364566629188583</v>
       </c>
       <c r="O24">
-        <v>17.59222898645258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.75388482223468</v>
+      </c>
+      <c r="P24">
+        <v>12.18915310513195</v>
+      </c>
+      <c r="Q24">
+        <v>14.24690693839686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.5061494732218</v>
+        <v>13.67694894005341</v>
       </c>
       <c r="C25">
-        <v>7.550513742819458</v>
+        <v>7.973432952927545</v>
       </c>
       <c r="D25">
-        <v>5.472885438085602</v>
+        <v>5.69259292956709</v>
       </c>
       <c r="E25">
-        <v>7.867294559261344</v>
+        <v>8.908188110180021</v>
       </c>
       <c r="F25">
-        <v>21.44240603205721</v>
+        <v>17.58790701413114</v>
       </c>
       <c r="G25">
-        <v>2.101021688887815</v>
+        <v>21.48654940179811</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.886506547083687</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.76184346841308</v>
       </c>
       <c r="K25">
-        <v>11.68265594392777</v>
+        <v>14.33239404253719</v>
       </c>
       <c r="L25">
-        <v>6.308030118247776</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.31772004452166</v>
+        <v>11.56285619710852</v>
       </c>
       <c r="N25">
-        <v>13.15697693803802</v>
+        <v>7.065541739498126</v>
       </c>
       <c r="O25">
-        <v>17.42242117899454</v>
+        <v>10.09329032726478</v>
+      </c>
+      <c r="P25">
+        <v>12.44317499881217</v>
+      </c>
+      <c r="Q25">
+        <v>14.17060684480464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.56409124099735</v>
+        <v>12.40955846352027</v>
       </c>
       <c r="C2">
-        <v>7.828341038350667</v>
+        <v>7.609237123033092</v>
       </c>
       <c r="D2">
-        <v>5.38866281335583</v>
+        <v>5.423324371686688</v>
       </c>
       <c r="E2">
-        <v>8.731537556307121</v>
+        <v>8.594796611000367</v>
       </c>
       <c r="F2">
-        <v>17.19756508585595</v>
+        <v>16.84084189653879</v>
       </c>
       <c r="G2">
-        <v>21.07576778999865</v>
+        <v>19.82554469334563</v>
       </c>
       <c r="H2">
-        <v>2.12712803402932</v>
+        <v>2.062871952788069</v>
       </c>
       <c r="J2">
-        <v>8.805525446546483</v>
+        <v>9.103861502242633</v>
       </c>
       <c r="K2">
-        <v>14.42684159991884</v>
+        <v>14.00432605738594</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.95042074592928</v>
       </c>
       <c r="M2">
-        <v>10.80256488861375</v>
+        <v>8.76772806530647</v>
       </c>
       <c r="N2">
-        <v>6.836664073666354</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.580222604116168</v>
+        <v>10.81602021386772</v>
       </c>
       <c r="P2">
-        <v>12.63653276715223</v>
+        <v>6.940120538508745</v>
       </c>
       <c r="Q2">
-        <v>14.14130481439974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.506215700201089</v>
+      </c>
+      <c r="R2">
+        <v>12.55240553033106</v>
+      </c>
+      <c r="S2">
+        <v>13.85597540929601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.74860382091566</v>
+        <v>11.63915393503497</v>
       </c>
       <c r="C3">
-        <v>7.727233826020146</v>
+        <v>7.440960182648849</v>
       </c>
       <c r="D3">
-        <v>5.170722722649894</v>
+        <v>5.18941791683295</v>
       </c>
       <c r="E3">
-        <v>8.608918939868786</v>
+        <v>8.487512446744814</v>
       </c>
       <c r="F3">
-        <v>16.95070371606504</v>
+        <v>16.6240496053138</v>
       </c>
       <c r="G3">
-        <v>20.82562965141573</v>
+        <v>19.64825062674457</v>
       </c>
       <c r="H3">
-        <v>2.297952333499248</v>
+        <v>2.221528997512952</v>
       </c>
       <c r="J3">
-        <v>8.842336695002754</v>
+        <v>9.11656427048467</v>
       </c>
       <c r="K3">
-        <v>14.50404020765356</v>
+        <v>14.09582025354921</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.09893019765342</v>
       </c>
       <c r="M3">
-        <v>10.25284061601622</v>
+        <v>8.779634407606691</v>
       </c>
       <c r="N3">
-        <v>6.676675519347078</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.217527149694391</v>
+        <v>10.2691277084064</v>
       </c>
       <c r="P3">
-        <v>12.77170044650947</v>
+        <v>6.784322651305841</v>
       </c>
       <c r="Q3">
-        <v>14.13726908904277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.149934615703982</v>
+      </c>
+      <c r="R3">
+        <v>12.67560406748113</v>
+      </c>
+      <c r="S3">
+        <v>13.86890776254061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.2175230486637</v>
+        <v>11.13758334366004</v>
       </c>
       <c r="C4">
-        <v>7.663825323496367</v>
+        <v>7.335823567458363</v>
       </c>
       <c r="D4">
-        <v>5.031238278861601</v>
+        <v>5.039651774762512</v>
       </c>
       <c r="E4">
-        <v>8.532262450902504</v>
+        <v>8.420346594620714</v>
       </c>
       <c r="F4">
-        <v>16.80803655775414</v>
+        <v>16.49871319383356</v>
       </c>
       <c r="G4">
-        <v>20.68585855692178</v>
+        <v>19.55449523614362</v>
       </c>
       <c r="H4">
-        <v>2.406742114992848</v>
+        <v>2.322600850258056</v>
       </c>
       <c r="J4">
-        <v>8.868360601985565</v>
+        <v>9.126183917835988</v>
       </c>
       <c r="K4">
-        <v>14.55766363754715</v>
+        <v>14.15694745966614</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.19406358578495</v>
       </c>
       <c r="M4">
-        <v>9.898759898133685</v>
+        <v>8.807130767515279</v>
       </c>
       <c r="N4">
-        <v>6.576245493098034</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.988111552862193</v>
+        <v>9.916946579051784</v>
       </c>
       <c r="P4">
-        <v>12.85678752959146</v>
+        <v>6.68686166355439</v>
       </c>
       <c r="Q4">
-        <v>14.14227207972171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.92433138563082</v>
+      </c>
+      <c r="R4">
+        <v>12.75343573484748</v>
+      </c>
+      <c r="S4">
+        <v>13.88324182888681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99345181322887</v>
+        <v>10.92600954762336</v>
       </c>
       <c r="C5">
-        <v>7.637658965984429</v>
+        <v>7.292559059583634</v>
       </c>
       <c r="D5">
-        <v>4.973013430140563</v>
+        <v>4.977122856662592</v>
       </c>
       <c r="E5">
-        <v>8.500690611813146</v>
+        <v>8.392657522526433</v>
       </c>
       <c r="F5">
-        <v>16.75216124744972</v>
+        <v>16.44960128731822</v>
       </c>
       <c r="G5">
-        <v>20.6323474427101</v>
+        <v>19.52000437450514</v>
       </c>
       <c r="H5">
-        <v>2.452067259521761</v>
+        <v>2.364717339945232</v>
       </c>
       <c r="J5">
-        <v>8.87980665087807</v>
+        <v>9.130554446350503</v>
       </c>
       <c r="K5">
-        <v>14.58103968455606</v>
+        <v>14.18307104308821</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.23383401499063</v>
       </c>
       <c r="M5">
-        <v>9.750394496746759</v>
+        <v>8.823338684741183</v>
       </c>
       <c r="N5">
-        <v>6.534801218945822</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.893048698709507</v>
+        <v>9.769400589677822</v>
       </c>
       <c r="P5">
-        <v>12.89199561124891</v>
+        <v>6.64672899264956</v>
       </c>
       <c r="Q5">
-        <v>14.14614325090343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.830785129005971</v>
+      </c>
+      <c r="R5">
+        <v>12.78570790100883</v>
+      </c>
+      <c r="S5">
+        <v>13.89064576607751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.95578245820967</v>
+        <v>10.89044425913408</v>
       </c>
       <c r="C6">
-        <v>7.633294536565936</v>
+        <v>7.285350704940178</v>
       </c>
       <c r="D6">
-        <v>4.963262994114644</v>
+        <v>4.966651039914983</v>
       </c>
       <c r="E6">
-        <v>8.495428287052171</v>
+        <v>8.3880407403974</v>
       </c>
       <c r="F6">
-        <v>16.74302039080245</v>
+        <v>16.44156503439388</v>
       </c>
       <c r="G6">
-        <v>20.62366913220559</v>
+        <v>19.51449895148315</v>
       </c>
       <c r="H6">
-        <v>2.459653721712744</v>
+        <v>2.371767130581878</v>
       </c>
       <c r="J6">
-        <v>8.881757504163353</v>
+        <v>9.131307166330242</v>
       </c>
       <c r="K6">
-        <v>14.58501214117775</v>
+        <v>14.1874812766904</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.24049872321695</v>
       </c>
       <c r="M6">
-        <v>9.725515319132718</v>
+        <v>8.826329547648342</v>
       </c>
       <c r="N6">
-        <v>6.527889164607055</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.87717214189111</v>
+        <v>9.744660363209322</v>
       </c>
       <c r="P6">
-        <v>12.89787439228868</v>
+        <v>6.640040929794861</v>
       </c>
       <c r="Q6">
-        <v>14.14689528963028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.815158003076867</v>
+      </c>
+      <c r="R6">
+        <v>12.79110034769827</v>
+      </c>
+      <c r="S6">
+        <v>13.89196825094706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21453214370738</v>
+        <v>11.13218602199333</v>
       </c>
       <c r="C7">
-        <v>7.663473748634636</v>
+        <v>7.332431923362011</v>
       </c>
       <c r="D7">
-        <v>5.030458581822891</v>
+        <v>5.041277770047921</v>
       </c>
       <c r="E7">
-        <v>8.53183799924099</v>
+        <v>8.420581315315912</v>
       </c>
       <c r="F7">
-        <v>16.80727381687578</v>
+        <v>16.48760031844751</v>
       </c>
       <c r="G7">
-        <v>20.6851229753679</v>
+        <v>19.63266248910649</v>
       </c>
       <c r="H7">
-        <v>2.407349353070584</v>
+        <v>2.323603782113893</v>
       </c>
       <c r="J7">
-        <v>8.86851158695152</v>
+        <v>9.095384830658332</v>
       </c>
       <c r="K7">
-        <v>14.55797277714103</v>
+        <v>14.15291881789905</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.19041474423905</v>
       </c>
       <c r="M7">
-        <v>9.896775361140808</v>
+        <v>8.80492582009269</v>
       </c>
       <c r="N7">
-        <v>6.575688612894974</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.986835713403888</v>
+        <v>9.911636054351176</v>
       </c>
       <c r="P7">
-        <v>12.85726018390006</v>
+        <v>6.685925302125741</v>
       </c>
       <c r="Q7">
-        <v>14.14231693324195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.92203176320508</v>
+      </c>
+      <c r="R7">
+        <v>12.75382732610844</v>
+      </c>
+      <c r="S7">
+        <v>13.87627730602618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.28920372756183</v>
+        <v>12.14194610880486</v>
       </c>
       <c r="C8">
-        <v>7.793759066821998</v>
+        <v>7.542316682184791</v>
       </c>
       <c r="D8">
-        <v>5.314716606551073</v>
+        <v>5.351830195903401</v>
       </c>
       <c r="E8">
-        <v>8.689548677985913</v>
+        <v>8.560166727635158</v>
       </c>
       <c r="F8">
-        <v>17.11061461164754</v>
+        <v>16.73041895290447</v>
       </c>
       <c r="G8">
-        <v>20.98663991836751</v>
+        <v>20.02060932712543</v>
       </c>
       <c r="H8">
-        <v>2.185224911584253</v>
+        <v>2.118174600851006</v>
       </c>
       <c r="J8">
-        <v>8.817496026050527</v>
+        <v>9.007355048529654</v>
       </c>
       <c r="K8">
-        <v>14.45214311185279</v>
+        <v>14.02042830875133</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.98823496260898</v>
       </c>
       <c r="M8">
-        <v>10.6165009330079</v>
+        <v>8.758157495002369</v>
       </c>
       <c r="N8">
-        <v>6.781975689990667</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.456624992395229</v>
+        <v>10.6204712415763</v>
       </c>
       <c r="P8">
-        <v>12.68270892858591</v>
+        <v>6.885559892800421</v>
       </c>
       <c r="Q8">
-        <v>14.13833155715461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.381532353764584</v>
+      </c>
+      <c r="R8">
+        <v>12.59458068049243</v>
+      </c>
+      <c r="S8">
+        <v>13.83577196704509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.15655367314159</v>
+        <v>13.90549419120243</v>
       </c>
       <c r="C9">
-        <v>8.038428333266982</v>
+        <v>7.948366443901975</v>
       </c>
       <c r="D9">
-        <v>5.825642075562734</v>
+        <v>5.901201412212865</v>
       </c>
       <c r="E9">
-        <v>8.987539107473113</v>
+        <v>8.82110806803958</v>
       </c>
       <c r="F9">
-        <v>17.7748132641852</v>
+        <v>17.30616191873834</v>
       </c>
       <c r="G9">
-        <v>21.6882200802708</v>
+        <v>20.61188699451849</v>
       </c>
       <c r="H9">
-        <v>1.780091852473555</v>
+        <v>1.742295306284493</v>
       </c>
       <c r="J9">
-        <v>8.745495665171834</v>
+        <v>8.958922989031949</v>
       </c>
       <c r="K9">
-        <v>14.29588359727558</v>
+        <v>13.81723256845994</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.63794977760547</v>
       </c>
       <c r="M9">
-        <v>11.8936264269199</v>
+        <v>8.837238365324879</v>
       </c>
       <c r="N9">
-        <v>7.167689613181794</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.32014958573772</v>
+        <v>11.88960999143084</v>
       </c>
       <c r="P9">
-        <v>12.35665012242097</v>
+        <v>7.262719811557937</v>
       </c>
       <c r="Q9">
-        <v>14.19201096828375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.2279408082877</v>
+      </c>
+      <c r="R9">
+        <v>12.299613040343</v>
+      </c>
+      <c r="S9">
+        <v>13.83484450835998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.34832510949651</v>
+        <v>15.02189965382504</v>
       </c>
       <c r="C10">
-        <v>8.242486882526912</v>
+        <v>8.253540580571636</v>
       </c>
       <c r="D10">
-        <v>6.186657805155046</v>
+        <v>6.299084054536901</v>
       </c>
       <c r="E10">
-        <v>9.093965584318859</v>
+        <v>8.909165634234299</v>
       </c>
       <c r="F10">
-        <v>18.2303516113569</v>
+        <v>17.64252452140401</v>
       </c>
       <c r="G10">
-        <v>22.14343217862061</v>
+        <v>21.43965469465036</v>
       </c>
       <c r="H10">
-        <v>1.614980782883251</v>
+        <v>1.630336768452205</v>
       </c>
       <c r="J10">
-        <v>8.690539888763308</v>
+        <v>8.748569061456275</v>
       </c>
       <c r="K10">
-        <v>14.16223075236694</v>
+        <v>13.62413884248902</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.34980870697813</v>
       </c>
       <c r="M10">
-        <v>12.74844741326826</v>
+        <v>8.933747205048313</v>
       </c>
       <c r="N10">
-        <v>7.341725174366396</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.82790582340258</v>
+        <v>12.72340244288241</v>
       </c>
       <c r="P10">
-        <v>12.12794133289445</v>
+        <v>7.429496473170893</v>
       </c>
       <c r="Q10">
-        <v>14.2192307692213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.7188929285186</v>
+      </c>
+      <c r="R10">
+        <v>12.09752337584349</v>
+      </c>
+      <c r="S10">
+        <v>13.78133305701098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.55955401188128</v>
+        <v>15.2177036644635</v>
       </c>
       <c r="C11">
-        <v>8.633127595229322</v>
+        <v>8.674433112673166</v>
       </c>
       <c r="D11">
-        <v>6.480227392817786</v>
+        <v>6.621973686720787</v>
       </c>
       <c r="E11">
-        <v>8.366481237513606</v>
+        <v>8.216509081568574</v>
       </c>
       <c r="F11">
-        <v>17.81368926350366</v>
+        <v>17.12724147260532</v>
       </c>
       <c r="G11">
-        <v>21.25527568769476</v>
+        <v>21.54100361388148</v>
       </c>
       <c r="H11">
-        <v>2.639335499674169</v>
+        <v>2.635402505187744</v>
       </c>
       <c r="J11">
-        <v>8.491410759761999</v>
+        <v>8.273842811873298</v>
       </c>
       <c r="K11">
-        <v>13.65468763776547</v>
+        <v>13.11130717893031</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.94015122736201</v>
       </c>
       <c r="M11">
-        <v>13.13097857490222</v>
+        <v>8.61156587630488</v>
       </c>
       <c r="N11">
-        <v>6.637149340235717</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.30766497453428</v>
+        <v>13.06978026851606</v>
       </c>
       <c r="P11">
-        <v>12.05020076758145</v>
+        <v>6.710568782128878</v>
       </c>
       <c r="Q11">
-        <v>13.78267454951956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.19280522982687</v>
+      </c>
+      <c r="R11">
+        <v>12.05101803378168</v>
+      </c>
+      <c r="S11">
+        <v>13.28511831604926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.49433368065458</v>
+        <v>15.16190899824662</v>
       </c>
       <c r="C12">
-        <v>8.957010795610044</v>
+        <v>9.000837810283823</v>
       </c>
       <c r="D12">
-        <v>6.656852002378464</v>
+        <v>6.808363194143816</v>
       </c>
       <c r="E12">
-        <v>7.940217932610468</v>
+        <v>7.820270009934577</v>
       </c>
       <c r="F12">
-        <v>17.35014732139462</v>
+        <v>16.64202308658525</v>
       </c>
       <c r="G12">
-        <v>20.38674833372932</v>
+        <v>21.15465562996452</v>
       </c>
       <c r="H12">
-        <v>4.071503329293765</v>
+        <v>4.0697574155269</v>
       </c>
       <c r="J12">
-        <v>8.331194497851397</v>
+        <v>8.041545341539411</v>
       </c>
       <c r="K12">
-        <v>13.25595377137668</v>
+        <v>12.74073738454792</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.68140723763637</v>
       </c>
       <c r="M12">
-        <v>13.28056052202222</v>
+        <v>8.321516386711446</v>
       </c>
       <c r="N12">
-        <v>6.082417377778047</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.758081070563179</v>
+        <v>13.20237727781096</v>
       </c>
       <c r="P12">
-        <v>12.04584852017519</v>
+        <v>6.145090471063557</v>
       </c>
       <c r="Q12">
-        <v>13.39922875367092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.645421980700197</v>
+      </c>
+      <c r="R12">
+        <v>12.06721190244927</v>
+      </c>
+      <c r="S12">
+        <v>12.89674448335581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.21066378420856</v>
+        <v>14.91265860557403</v>
       </c>
       <c r="C13">
-        <v>9.245048737299427</v>
+        <v>9.283576319366142</v>
       </c>
       <c r="D13">
-        <v>6.757761628915563</v>
+        <v>6.898739204251402</v>
       </c>
       <c r="E13">
-        <v>7.747608873325014</v>
+        <v>7.656653463517111</v>
       </c>
       <c r="F13">
-        <v>16.81358545742903</v>
+        <v>16.16611278120062</v>
       </c>
       <c r="G13">
-        <v>19.46815704964652</v>
+        <v>20.15774791171156</v>
       </c>
       <c r="H13">
-        <v>5.518108382147351</v>
+        <v>5.515746333353533</v>
       </c>
       <c r="J13">
-        <v>8.191169988054787</v>
+        <v>7.986599800438057</v>
       </c>
       <c r="K13">
-        <v>12.91903219341354</v>
+        <v>12.46451296478456</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.51313337713746</v>
       </c>
       <c r="M13">
-        <v>13.26405384846085</v>
+        <v>8.053190499286469</v>
       </c>
       <c r="N13">
-        <v>5.627628953837488</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.142267387738242</v>
+        <v>13.18907418516396</v>
       </c>
       <c r="P13">
-        <v>12.0940933511191</v>
+        <v>5.682762250541217</v>
       </c>
       <c r="Q13">
-        <v>13.03194155447262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.040037370283409</v>
+      </c>
+      <c r="R13">
+        <v>12.12348579134086</v>
+      </c>
+      <c r="S13">
+        <v>12.58122243805501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90916467893221</v>
+        <v>14.64688457074233</v>
       </c>
       <c r="C14">
-        <v>9.433124388174051</v>
+        <v>9.465369004285543</v>
       </c>
       <c r="D14">
-        <v>6.79521458100196</v>
+        <v>6.919512318108224</v>
       </c>
       <c r="E14">
-        <v>7.759476247462131</v>
+        <v>7.689072104485792</v>
       </c>
       <c r="F14">
-        <v>16.40257428965163</v>
+        <v>15.83311829946125</v>
       </c>
       <c r="G14">
-        <v>18.80109363323024</v>
+        <v>19.19507315881524</v>
       </c>
       <c r="H14">
-        <v>6.536146505655277</v>
+        <v>6.532824942525818</v>
       </c>
       <c r="J14">
-        <v>8.103053376524008</v>
+        <v>8.01433743551601</v>
       </c>
       <c r="K14">
-        <v>12.71539615603245</v>
+        <v>12.31406838302004</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.43127437478754</v>
       </c>
       <c r="M14">
-        <v>13.17722337343367</v>
+        <v>7.880307422469447</v>
       </c>
       <c r="N14">
-        <v>5.383104526239454</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.677565594170554</v>
+        <v>13.11342099309301</v>
       </c>
       <c r="P14">
-        <v>12.15166263255228</v>
+        <v>5.434537102457152</v>
       </c>
       <c r="Q14">
-        <v>12.7836636956773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.58608747621061</v>
+      </c>
+      <c r="R14">
+        <v>12.17937719822274</v>
+      </c>
+      <c r="S14">
+        <v>12.39187149260711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.78766128936527</v>
+        <v>14.53922318415183</v>
       </c>
       <c r="C15">
-        <v>9.466585766146068</v>
+        <v>9.497019227390874</v>
       </c>
       <c r="D15">
-        <v>6.78790415568693</v>
+        <v>6.904113729340486</v>
       </c>
       <c r="E15">
-        <v>7.780472289472582</v>
+        <v>7.715638776871589</v>
       </c>
       <c r="F15">
-        <v>16.28869914416866</v>
+        <v>15.75325833202759</v>
       </c>
       <c r="G15">
-        <v>18.63116448900622</v>
+        <v>18.85313063563418</v>
       </c>
       <c r="H15">
-        <v>6.772071030858222</v>
+        <v>6.768217734228829</v>
       </c>
       <c r="J15">
-        <v>8.086589403774465</v>
+        <v>8.050762435133306</v>
       </c>
       <c r="K15">
-        <v>12.67944046531267</v>
+        <v>12.29538598941991</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.42578787707558</v>
       </c>
       <c r="M15">
-        <v>13.12006612833354</v>
+        <v>7.844767418009717</v>
       </c>
       <c r="N15">
-        <v>5.334825477099663</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.550088211612758</v>
+        <v>13.0628816304488</v>
       </c>
       <c r="P15">
-        <v>12.17463744439919</v>
+        <v>5.386252469316371</v>
       </c>
       <c r="Q15">
-        <v>12.72832817260362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.462663071921357</v>
+      </c>
+      <c r="R15">
+        <v>12.19891368696308</v>
+      </c>
+      <c r="S15">
+        <v>12.36027226776199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.3356137610767</v>
+        <v>14.13167599482291</v>
       </c>
       <c r="C16">
-        <v>9.320264375299102</v>
+        <v>9.344541106103287</v>
       </c>
       <c r="D16">
-        <v>6.623710950864151</v>
+        <v>6.706060837653825</v>
       </c>
       <c r="E16">
-        <v>7.762394422956604</v>
+        <v>7.702562205846851</v>
       </c>
       <c r="F16">
-        <v>16.18213904148058</v>
+        <v>15.77109362190042</v>
       </c>
       <c r="G16">
-        <v>18.59518017007748</v>
+        <v>18.00803442535239</v>
       </c>
       <c r="H16">
-        <v>6.563866717988826</v>
+        <v>6.556505151244821</v>
       </c>
       <c r="J16">
-        <v>8.138034190054684</v>
+        <v>8.327894339825347</v>
       </c>
       <c r="K16">
-        <v>12.80802860055767</v>
+        <v>12.46155081106968</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.56492015847306</v>
       </c>
       <c r="M16">
-        <v>12.77171593115016</v>
+        <v>7.903238781192498</v>
       </c>
       <c r="N16">
-        <v>5.34247395156982</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.433497570365676</v>
+        <v>12.74717641860276</v>
       </c>
       <c r="P16">
-        <v>12.25287678164574</v>
+        <v>5.402633118714423</v>
       </c>
       <c r="Q16">
-        <v>12.7876779268583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.358134832226389</v>
+      </c>
+      <c r="R16">
+        <v>12.25289353831837</v>
+      </c>
+      <c r="S16">
+        <v>12.49798502778503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.15009549915307</v>
+        <v>13.95778151769911</v>
       </c>
       <c r="C17">
-        <v>9.103610100638754</v>
+        <v>9.119122250130847</v>
       </c>
       <c r="D17">
-        <v>6.474669067509929</v>
+        <v>6.543738625482212</v>
       </c>
       <c r="E17">
-        <v>7.7198188959408</v>
+        <v>7.650311967338418</v>
       </c>
       <c r="F17">
-        <v>16.32546599109656</v>
+        <v>15.95375208435497</v>
       </c>
       <c r="G17">
-        <v>18.92999506909802</v>
+        <v>17.99452994737065</v>
       </c>
       <c r="H17">
-        <v>5.830669826647852</v>
+        <v>5.820297231672181</v>
       </c>
       <c r="J17">
-        <v>8.224557657799361</v>
+        <v>8.511058409742047</v>
       </c>
       <c r="K17">
-        <v>13.01308701705096</v>
+        <v>12.66578398590182</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.72244346802074</v>
       </c>
       <c r="M17">
-        <v>12.54733409478915</v>
+        <v>8.031432757573164</v>
       </c>
       <c r="N17">
-        <v>5.464891505651805</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.597172982492808</v>
+        <v>12.53766521607592</v>
       </c>
       <c r="P17">
-        <v>12.2836992284466</v>
+        <v>5.533194054648493</v>
       </c>
       <c r="Q17">
-        <v>12.9661843331133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.524327241526223</v>
+      </c>
+      <c r="R17">
+        <v>12.2696057861991</v>
+      </c>
+      <c r="S17">
+        <v>12.69751601642031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.1806174352038</v>
+        <v>13.97655287275798</v>
       </c>
       <c r="C18">
-        <v>8.816243050139065</v>
+        <v>8.823940649775544</v>
       </c>
       <c r="D18">
-        <v>6.324307647099108</v>
+        <v>6.391534691392787</v>
       </c>
       <c r="E18">
-        <v>7.782535397699402</v>
+        <v>7.688714640970468</v>
       </c>
       <c r="F18">
-        <v>16.69308793611763</v>
+        <v>16.31428110046877</v>
       </c>
       <c r="G18">
-        <v>19.61330861382089</v>
+        <v>18.50452162905863</v>
       </c>
       <c r="H18">
-        <v>4.58667906504529</v>
+        <v>4.572711765687367</v>
       </c>
       <c r="J18">
-        <v>8.349939557531496</v>
+        <v>8.668380858448362</v>
       </c>
       <c r="K18">
-        <v>13.31118902748193</v>
+        <v>12.93825335751355</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.92513418681399</v>
       </c>
       <c r="M18">
-        <v>12.4091017794755</v>
+        <v>8.236119720418248</v>
       </c>
       <c r="N18">
-        <v>5.770779395302205</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.023951482387767</v>
+        <v>12.40625262924907</v>
       </c>
       <c r="P18">
-        <v>12.2828179394063</v>
+        <v>5.847395435008391</v>
       </c>
       <c r="Q18">
-        <v>13.26458595083245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.947657419388275</v>
+      </c>
+      <c r="R18">
+        <v>12.25876905288797</v>
+      </c>
+      <c r="S18">
+        <v>12.98550851536428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38262440849059</v>
+        <v>14.15090509974408</v>
       </c>
       <c r="C19">
-        <v>8.51579033530194</v>
+        <v>8.515065481920233</v>
       </c>
       <c r="D19">
-        <v>6.186814219869801</v>
+        <v>6.259222041587048</v>
       </c>
       <c r="E19">
-        <v>8.111137263796868</v>
+        <v>7.982901389683532</v>
       </c>
       <c r="F19">
-        <v>17.20711318296284</v>
+        <v>16.7935454283533</v>
       </c>
       <c r="G19">
-        <v>20.52126607011614</v>
+        <v>19.3221233702637</v>
       </c>
       <c r="H19">
-        <v>3.117824288143605</v>
+        <v>3.098722557443465</v>
       </c>
       <c r="J19">
-        <v>8.497497954920236</v>
+        <v>8.811984247533108</v>
       </c>
       <c r="K19">
-        <v>13.6714262703802</v>
+        <v>13.25638749738787</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.15670867743382</v>
       </c>
       <c r="M19">
-        <v>12.35292361178545</v>
+        <v>8.494403405015158</v>
       </c>
       <c r="N19">
-        <v>6.287874222367408</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.630396696620586</v>
+        <v>12.35228074787569</v>
       </c>
       <c r="P19">
-        <v>12.26378762918351</v>
+        <v>6.371920050042607</v>
       </c>
       <c r="Q19">
-        <v>13.63765987537373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.54683382785673</v>
+      </c>
+      <c r="R19">
+        <v>12.23155142354972</v>
+      </c>
+      <c r="S19">
+        <v>13.32913645694426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.04314411424421</v>
+        <v>14.74325816451473</v>
       </c>
       <c r="C20">
-        <v>8.190632215507215</v>
+        <v>8.185484073484941</v>
       </c>
       <c r="D20">
-        <v>6.094740570474739</v>
+        <v>6.19006348171598</v>
       </c>
       <c r="E20">
-        <v>9.061500692443994</v>
+        <v>8.879330707463923</v>
       </c>
       <c r="F20">
-        <v>18.10476979391292</v>
+        <v>17.58340623161711</v>
       </c>
       <c r="G20">
-        <v>22.01345052366864</v>
+        <v>20.94183826725284</v>
       </c>
       <c r="H20">
-        <v>1.596309015362717</v>
+        <v>1.573654587988086</v>
       </c>
       <c r="J20">
-        <v>8.702815682985007</v>
+        <v>8.904474648210963</v>
       </c>
       <c r="K20">
-        <v>14.1927008590535</v>
+        <v>13.68624782441385</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.43282831134627</v>
       </c>
       <c r="M20">
-        <v>12.52988944297966</v>
+        <v>8.913918321310286</v>
       </c>
       <c r="N20">
-        <v>7.292290728698888</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.69308585269283</v>
+        <v>12.51996533376644</v>
       </c>
       <c r="P20">
-        <v>12.18730830553648</v>
+        <v>7.382986528497335</v>
       </c>
       <c r="Q20">
-        <v>14.20696975501761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.59171642265561</v>
+      </c>
+      <c r="R20">
+        <v>12.14891056498147</v>
+      </c>
+      <c r="S20">
+        <v>13.81562971972098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.96720904456649</v>
+        <v>15.5694289847456</v>
       </c>
       <c r="C21">
-        <v>8.29670729938624</v>
+        <v>8.313161385920093</v>
       </c>
       <c r="D21">
-        <v>6.337522873744775</v>
+        <v>6.500724474438272</v>
       </c>
       <c r="E21">
-        <v>9.303881191220714</v>
+        <v>9.114664845990996</v>
       </c>
       <c r="F21">
-        <v>18.5788151399224</v>
+        <v>17.77384021564626</v>
       </c>
       <c r="G21">
-        <v>22.58201566641344</v>
+        <v>23.22162237432346</v>
       </c>
       <c r="H21">
-        <v>1.753095132918369</v>
+        <v>1.752749116537703</v>
       </c>
       <c r="J21">
-        <v>8.698412520413852</v>
+        <v>8.28609933363002</v>
       </c>
       <c r="K21">
-        <v>14.18337353444394</v>
+        <v>13.53622947357965</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.21381111455359</v>
       </c>
       <c r="M21">
-        <v>13.15632556505663</v>
+        <v>9.00584656434774</v>
       </c>
       <c r="N21">
-        <v>7.570643020450326</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.20321013268915</v>
+        <v>13.08125438468312</v>
       </c>
       <c r="P21">
-        <v>12.01245440755901</v>
+        <v>7.651816426509855</v>
       </c>
       <c r="Q21">
-        <v>14.3227391785758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.07060808005706</v>
+      </c>
+      <c r="R21">
+        <v>11.9979326586792</v>
+      </c>
+      <c r="S21">
+        <v>13.72801259600023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.52699382232237</v>
+        <v>16.06772469730856</v>
       </c>
       <c r="C22">
-        <v>8.380563911922613</v>
+        <v>8.40920102324599</v>
       </c>
       <c r="D22">
-        <v>6.4984703217465</v>
+        <v>6.707036902624957</v>
       </c>
       <c r="E22">
-        <v>9.406861552967916</v>
+        <v>9.217641656630454</v>
       </c>
       <c r="F22">
-        <v>18.85796725561122</v>
+        <v>17.85707953760849</v>
       </c>
       <c r="G22">
-        <v>22.90019095440678</v>
+        <v>24.78384944432764</v>
       </c>
       <c r="H22">
-        <v>1.88364489638375</v>
+        <v>1.869120989607418</v>
       </c>
       <c r="J22">
-        <v>8.688870142231963</v>
+        <v>7.917590667107024</v>
       </c>
       <c r="K22">
-        <v>14.15741518497853</v>
+        <v>13.41248627375027</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.0566462192827</v>
       </c>
       <c r="M22">
-        <v>13.55053074779057</v>
+        <v>9.052971286660256</v>
       </c>
       <c r="N22">
-        <v>7.70033042090357</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.48367402046361</v>
+        <v>13.43121831087588</v>
       </c>
       <c r="P22">
-        <v>11.90037940058738</v>
+        <v>7.775046801218154</v>
       </c>
       <c r="Q22">
-        <v>14.37970784270263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.33034566112684</v>
+      </c>
+      <c r="R22">
+        <v>11.90421162553453</v>
+      </c>
+      <c r="S22">
+        <v>13.64161921795298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.23058553845383</v>
+        <v>15.80883515585894</v>
       </c>
       <c r="C23">
-        <v>8.335930706319644</v>
+        <v>8.364768647408582</v>
       </c>
       <c r="D23">
-        <v>6.413103846204636</v>
+        <v>6.592147850952386</v>
       </c>
       <c r="E23">
-        <v>9.352036045357369</v>
+        <v>9.160677537905904</v>
       </c>
       <c r="F23">
-        <v>18.70839515901007</v>
+        <v>17.83758894423017</v>
       </c>
       <c r="G23">
-        <v>22.72928017965589</v>
+        <v>23.74464796994301</v>
       </c>
       <c r="H23">
-        <v>1.814232317731529</v>
+        <v>1.807945182820571</v>
       </c>
       <c r="J23">
-        <v>8.693613366682234</v>
+        <v>8.161276928529338</v>
       </c>
       <c r="K23">
-        <v>14.17060928714151</v>
+        <v>13.48967814998464</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.14730838518337</v>
       </c>
       <c r="M23">
-        <v>13.34159589799007</v>
+        <v>9.037039480025143</v>
       </c>
       <c r="N23">
-        <v>7.631377250426056</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.33476949558643</v>
+        <v>13.25250342475168</v>
       </c>
       <c r="P23">
-        <v>11.96005890204757</v>
+        <v>7.710259855815458</v>
       </c>
       <c r="Q23">
-        <v>14.34854508315416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.19478168457817</v>
+      </c>
+      <c r="R23">
+        <v>11.95314085801718</v>
+      </c>
+      <c r="S23">
+        <v>13.70577819335178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05599313802467</v>
+        <v>14.75395522689081</v>
       </c>
       <c r="C24">
-        <v>8.164215446415451</v>
+        <v>8.155889721405561</v>
       </c>
       <c r="D24">
-        <v>6.078142336098015</v>
+        <v>6.17347648514243</v>
       </c>
       <c r="E24">
-        <v>9.1414238362121</v>
+        <v>8.956008614838698</v>
       </c>
       <c r="F24">
-        <v>18.15501774865419</v>
+        <v>17.63181035876046</v>
       </c>
       <c r="G24">
-        <v>22.10617952906061</v>
+        <v>21.01449166116129</v>
       </c>
       <c r="H24">
-        <v>1.576042574457999</v>
+        <v>1.567652722784804</v>
       </c>
       <c r="J24">
-        <v>8.719117337156273</v>
+        <v>8.924243150550044</v>
       </c>
       <c r="K24">
-        <v>14.23477680885463</v>
+        <v>13.72434062884786</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.46183571750662</v>
       </c>
       <c r="M24">
-        <v>12.51831908468891</v>
+        <v>8.94267587245275</v>
       </c>
       <c r="N24">
-        <v>7.364566629188583</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.75388482223468</v>
+        <v>12.50901088508539</v>
       </c>
       <c r="P24">
-        <v>12.18915310513195</v>
+        <v>7.456008332461543</v>
       </c>
       <c r="Q24">
-        <v>14.24690693839686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.65194272549418</v>
+      </c>
+      <c r="R24">
+        <v>12.14929110709147</v>
+      </c>
+      <c r="S24">
+        <v>13.8535949237993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.67694894005341</v>
+        <v>13.45560412664445</v>
       </c>
       <c r="C25">
-        <v>7.973432952927545</v>
+        <v>7.844332669103822</v>
       </c>
       <c r="D25">
-        <v>5.69259292956709</v>
+        <v>5.755027543811265</v>
       </c>
       <c r="E25">
-        <v>8.908188110180021</v>
+        <v>8.750756239912052</v>
       </c>
       <c r="F25">
-        <v>17.58790701413114</v>
+        <v>17.15815195384354</v>
       </c>
       <c r="G25">
-        <v>21.48654940179811</v>
+        <v>20.32938874065424</v>
       </c>
       <c r="H25">
-        <v>1.886506547083687</v>
+        <v>1.840458929469163</v>
       </c>
       <c r="J25">
-        <v>8.76184346841308</v>
+        <v>9.012760100564503</v>
       </c>
       <c r="K25">
-        <v>14.33239404253719</v>
+        <v>13.87376331678182</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.73425823535634</v>
       </c>
       <c r="M25">
-        <v>11.56285619710852</v>
+        <v>8.803032705808333</v>
       </c>
       <c r="N25">
-        <v>7.065541739498126</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.09329032726478</v>
+        <v>11.56504788105206</v>
       </c>
       <c r="P25">
-        <v>12.44317499881217</v>
+        <v>7.163065678936389</v>
       </c>
       <c r="Q25">
-        <v>14.17060684480464</v>
+        <v>10.00711311236447</v>
+      </c>
+      <c r="R25">
+        <v>12.37740674595366</v>
+      </c>
+      <c r="S25">
+        <v>13.83908334260147</v>
       </c>
     </row>
   </sheetData>
